--- a/phase2/Marshall_Room_Capacity_Chart.xlsx
+++ b/phase2/Marshall_Room_Capacity_Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufeiwang/Desktop/suju/2018spring/The Analytics Edge Data, Models, and EffectiveDecisions/DSO570 Final Project/sample dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufeiwang/Documents/GitHub/MarshallScheduling/phase2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Room" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Room</t>
   </si>
   <si>
     <t>Size</t>
-  </si>
-  <si>
-    <t>ACC 306B</t>
   </si>
   <si>
     <t>ACC201</t>
@@ -558,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -582,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -590,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -598,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -606,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -614,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -622,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -630,39 +627,39 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>20</v>
+      <c r="B9" s="5">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
-        <v>42</v>
+      <c r="B10" s="4">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
+      <c r="B12" s="4">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -670,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>36</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,7 +675,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4">
-        <v>269</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,7 +691,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,18 +704,18 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -726,7 +723,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -734,23 +731,23 @@
         <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,7 +755,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -766,7 +763,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -774,7 +771,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -782,7 +779,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -790,7 +787,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -798,7 +795,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -806,7 +803,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -814,7 +811,7 @@
         <v>47</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -822,7 +819,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -830,7 +827,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -838,7 +835,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -846,7 +843,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -854,7 +851,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -862,15 +859,15 @@
         <v>53</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B38" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -878,7 +875,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="4">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -886,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="B40" s="4">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -902,7 +899,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="4">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -918,7 +915,7 @@
         <v>25</v>
       </c>
       <c r="B44" s="4">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -930,12 +927,8 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="4">
-        <v>78</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
@@ -1144,10 +1137,6 @@
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
